--- a/Resources/ExcelData.xlsx
+++ b/Resources/ExcelData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyam\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Jenkins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F03A18-5BBE-4596-B1D8-6C92F71AFE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDA9B9A-97CA-468A-87C9-1C0FE5492871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{3B8BC32A-6498-442E-AC73-742C756A8BE8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -77,9 +77,6 @@
     <t>29-July 2021</t>
   </si>
   <si>
-    <t>InvalidSourcAddressSearch</t>
-  </si>
-  <si>
     <t>Delhi (All Locations)</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>day</t>
   </si>
   <si>
-    <t>Date1</t>
-  </si>
-  <si>
     <t>offers</t>
   </si>
   <si>
@@ -198,6 +192,75 @@
   </si>
   <si>
     <t>all_bus_operators</t>
+  </si>
+  <si>
+    <t>BusHiringLocal</t>
+  </si>
+  <si>
+    <t>BusHiringAirport</t>
+  </si>
+  <si>
+    <t>invalidSourceSearchBus</t>
+  </si>
+  <si>
+    <t>qinbxjnx</t>
+  </si>
+  <si>
+    <t>9076543212</t>
+  </si>
+  <si>
+    <t>23-07-2021-10:30 PM</t>
+  </si>
+  <si>
+    <t>fromWhen</t>
+  </si>
+  <si>
+    <t>TillWhen</t>
+  </si>
+  <si>
+    <t>26-07-2021-10:30 PM</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Singapore Bus tickets online, Singapore Express Bus, Super VIP Coach Booking - redBus</t>
+  </si>
+  <si>
+    <t>Bus Tickets Online, Ferry Booking | Best Online Bus Booking Platform - redBus Malaysia</t>
+  </si>
+  <si>
+    <t>Tiket Bus Online | Pesan Tiket Bus - redBus Indonesia</t>
+  </si>
+  <si>
+    <t>redBus | La forma más fácil de comprar pasajes de bus</t>
+  </si>
+  <si>
+    <t>Compra Pasajes de Bus Online - redBus Colombia</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>passenger</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>4-07-2021-3:30 AM</t>
+  </si>
+  <si>
+    <t>Delhi Public School Bengaluru South, Road, Mango Garden Layout, Konanakunte, Bengaluru, Karnataka, India</t>
+  </si>
+  <si>
+    <t>Delhi railway station, Mori Gate, Delhi, India</t>
+  </si>
+  <si>
+    <t>Dehradun, Uttarakhand, Republic of India'</t>
+  </si>
+  <si>
+    <t>Find list of bus operators in India. Get more than 2000 bus operators information in redBus, India's largest bus booking site.</t>
   </si>
 </sst>
 </file>
@@ -247,8 +310,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,14 +629,18 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="33.08984375" customWidth="1"/>
     <col min="2" max="2" width="21.08984375" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -604,16 +671,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
@@ -628,16 +695,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
@@ -652,16 +719,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
-        <v>123456</v>
+      <c r="C4" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>12</v>
@@ -681,20 +748,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBF4778-9FD3-4444-BE1B-26A9120B9731}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.08984375" customWidth="1"/>
-    <col min="2" max="3" width="18" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" customWidth="1"/>
     <col min="5" max="5" width="17.90625" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" customWidth="1"/>
+    <col min="10" max="10" width="38.36328125" customWidth="1"/>
+    <col min="11" max="11" width="29.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -708,200 +779,279 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="E2" s="5"/>
       <c r="F2">
         <v>2021</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>51</v>
       </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>52</v>
       </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>53</v>
       </c>
-      <c r="B22" t="s">
-        <v>6</v>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" t="s">
+        <v>71</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -915,7 +1065,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -933,12 +1083,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -946,7 +1096,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -954,7 +1104,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -962,7 +1112,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -970,18 +1120,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
-        <v>9076543212</v>
+      <c r="C6" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -989,7 +1139,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -997,7 +1147,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>

--- a/Resources/ExcelData.xlsx
+++ b/Resources/ExcelData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Jenkins\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyam\eclipse-workspace\ExitTestAutomationTarining2021\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDA9B9A-97CA-468A-87C9-1C0FE5492871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B921842-7F3E-4461-93BA-3FDA381DBBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{3B8BC32A-6498-442E-AC73-742C756A8BE8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="95">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -248,9 +248,6 @@
     <t>35</t>
   </si>
   <si>
-    <t>4-07-2021-3:30 AM</t>
-  </si>
-  <si>
     <t>Delhi Public School Bengaluru South, Road, Mango Garden Layout, Konanakunte, Bengaluru, Karnataka, India</t>
   </si>
   <si>
@@ -261,6 +258,69 @@
   </si>
   <si>
     <t>Find list of bus operators in India. Get more than 2000 bus operators information in redBus, India's largest bus booking site.</t>
+  </si>
+  <si>
+    <t>Online Bus Tickets Booking: Book Bus Ticket and Bus Reservation -redBus India</t>
+  </si>
+  <si>
+    <t>Search Bus Tickets</t>
+  </si>
+  <si>
+    <t>Carpool in Bangalore || The best Carpool app by redBus</t>
+  </si>
+  <si>
+    <t>Goibibo - Best Travel Website. Book Hotels, Flights, Trains, Bus and Cabs with upto 50% off</t>
+  </si>
+  <si>
+    <t>MakeMyTrip - #1 Travel Website 50% OFF on Hotels, Flights &amp; Holiday</t>
+  </si>
+  <si>
+    <t>Fill Contact Details</t>
+  </si>
+  <si>
+    <t>Cancel Ticket - redBus</t>
+  </si>
+  <si>
+    <t>Terms &amp; Condition -redBus.in</t>
+  </si>
+  <si>
+    <t>FAQ, Frequently Asked Question-redBus</t>
+  </si>
+  <si>
+    <t>redBus Blog - redBus - Easiest Way to Buy Bus Tickets Online in India</t>
+  </si>
+  <si>
+    <t>General Insurance - Buy Insurance Policy Online in India at ICICI Lombard</t>
+  </si>
+  <si>
+    <t>User Agreement -redBus.in</t>
+  </si>
+  <si>
+    <t>Seat Seller</t>
+  </si>
+  <si>
+    <t>red:Care</t>
+  </si>
+  <si>
+    <t>Offers: Bus Offers, Hotel Discounts &amp; Coupon Codes - redBus</t>
+  </si>
+  <si>
+    <t>Date_Year</t>
+  </si>
+  <si>
+    <t>July 2021</t>
+  </si>
+  <si>
+    <t>Dehradun to Delhi Bus Tickets Booking, Save upto 25% - redBus</t>
+  </si>
+  <si>
+    <t>24-07-2021-3:30 PM</t>
+  </si>
+  <si>
+    <t>Bus Hire: Rent Volvo, AC buses, Mini Buses, Tempo Travellers &amp; Innova Cars - Book Online</t>
+  </si>
+  <si>
+    <t>redBus | Vendor Onboarding</t>
   </si>
 </sst>
 </file>
@@ -628,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7E3110-C9B0-4787-9AA9-D79BD10544B1}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -639,7 +699,7 @@
     <col min="3" max="3" width="18.26953125" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="17.1796875" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="6" max="6" width="62.54296875" customWidth="1"/>
     <col min="7" max="7" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -686,7 +746,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
@@ -710,7 +770,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
@@ -734,7 +794,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
@@ -748,24 +808,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBF4778-9FD3-4444-BE1B-26A9120B9731}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="1" max="1" width="30.08984375" customWidth="1"/>
+    <col min="2" max="2" width="6.36328125" customWidth="1"/>
     <col min="3" max="3" width="9.36328125" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" customWidth="1"/>
     <col min="5" max="5" width="17.90625" customWidth="1"/>
     <col min="9" max="9" width="15.7265625" customWidth="1"/>
-    <col min="10" max="10" width="38.36328125" customWidth="1"/>
-    <col min="11" max="11" width="29.90625" customWidth="1"/>
+    <col min="10" max="10" width="82.54296875" customWidth="1"/>
+    <col min="11" max="11" width="50.36328125" customWidth="1"/>
+    <col min="13" max="13" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -802,8 +864,11 @@
       <c r="L1" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M1" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -826,8 +891,14 @@
       <c r="H2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -838,31 +909,40 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -873,7 +953,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -884,7 +964,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -895,7 +975,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -906,65 +986,101 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
+      </c>
+      <c r="J16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -972,85 +1088,60 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" t="s">
-        <v>60</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
+      </c>
+      <c r="J20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
+      <c r="E22" t="s">
+        <v>92</v>
+      </c>
       <c r="J22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" t="s">
-        <v>57</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22" t="s">
         <v>70</v>
       </c>
-      <c r="K24" t="s">
-        <v>71</v>
-      </c>
-      <c r="L24" s="4" t="s">
+      <c r="L22" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1062,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4F64B8-0C74-410B-AD45-CEA0B9A2A88C}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1073,9 +1164,10 @@
     <col min="1" max="1" width="20.1796875" customWidth="1"/>
     <col min="2" max="2" width="19.6328125" customWidth="1"/>
     <col min="3" max="3" width="22.90625" customWidth="1"/>
+    <col min="4" max="4" width="59.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1085,16 +1177,22 @@
       <c r="C1" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1102,23 +1200,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>42</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1128,29 +1232,41 @@
       <c r="C6" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>44</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
